--- a/FMS.Website/files_upload/UploadCtf.xlsx
+++ b/FMS.Website/files_upload/UploadCtf.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>EMPLOYEE ID</t>
   </si>
@@ -31,18 +31,42 @@
     <t>POLICE NUMBER</t>
   </si>
   <si>
+    <t>VEHICLE YEAR</t>
+  </si>
+  <si>
     <t>VEHICLE TYPE</t>
   </si>
   <si>
-    <t>VEHICLE YEAR</t>
-  </si>
-  <si>
     <t>SUPPLY METHOD</t>
   </si>
   <si>
     <t>EFFECTIVE DATE</t>
   </si>
   <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>EXTEND VEHICLE</t>
+  </si>
+  <si>
+    <t>EXTEND NEW DATE</t>
+  </si>
+  <si>
+    <t>EXTEND POLICE NUMBER</t>
+  </si>
+  <si>
+    <t>EXTEND PO NUMBER</t>
+  </si>
+  <si>
+    <t>EXTEND PO LINE</t>
+  </si>
+  <si>
+    <t>EXTEND PRICE</t>
+  </si>
+  <si>
+    <t>EXTEND REASON</t>
+  </si>
+  <si>
     <t>EMPLOYEE 80007749</t>
   </si>
   <si>
@@ -56,6 +80,18 @@
   </si>
   <si>
     <t>LEASE</t>
+  </si>
+  <si>
+    <t>REASON 1</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>EXTEND REASON 1</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -63,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -82,6 +118,150 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,152 +269,8 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,19 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,172 +471,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -455,8 +516,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,35 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,32 +602,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,147 +631,158 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,105 +1104,172 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="17.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="27.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="16.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="18.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="21.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="21.1428571428571" customWidth="1"/>
+    <col min="8" max="9" width="21.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="16.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="19.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="25.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="21.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="16.4285714285714" customWidth="1"/>
+    <col min="15" max="15" width="14.2857142857143" customWidth="1"/>
+    <col min="16" max="16" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4">
+    <row r="2" spans="1:16">
+      <c r="A2" s="6">
         <v>80007749</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6">
         <v>2017</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8">
         <v>43313</v>
       </c>
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="8">
+        <v>44562</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="11">
+        <v>88888888</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4">
+    <row r="3" spans="1:16">
+      <c r="A3" s="6">
         <v>80007749</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6">
         <v>2017</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8">
         <v>43313</v>
       </c>
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="6" s="2" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:H2"/>
+  <autoFilter ref="A1:H3"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>

--- a/FMS.Website/files_upload/UploadCtf.xlsx
+++ b/FMS.Website/files_upload/UploadCtf.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="11625" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -25,27 +25,27 @@
     <t>EMPLOYEE NAME</t>
   </si>
   <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>TERMINATION DATE</t>
+  </si>
+  <si>
+    <t>POLICE NUMBER</t>
+  </si>
+  <si>
     <t>COST CENTER</t>
   </si>
   <si>
-    <t>POLICE NUMBER</t>
+    <t>VEHICLE TYPE</t>
   </si>
   <si>
     <t>VEHICLE YEAR</t>
   </si>
   <si>
-    <t>VEHICLE TYPE</t>
-  </si>
-  <si>
     <t>SUPPLY METHOD</t>
   </si>
   <si>
-    <t>EFFECTIVE DATE</t>
-  </si>
-  <si>
-    <t>REASON</t>
-  </si>
-  <si>
     <t>EXTEND VEHICLE</t>
   </si>
   <si>
@@ -70,19 +70,19 @@
     <t>EMPLOYEE 80007749</t>
   </si>
   <si>
+    <t>REASON 1</t>
+  </si>
+  <si>
+    <t>AB1044JN</t>
+  </si>
+  <si>
     <t>3066410ZBK</t>
   </si>
   <si>
-    <t>AB1044JN</t>
-  </si>
-  <si>
     <t>WTC</t>
   </si>
   <si>
     <t>LEASE</t>
-  </si>
-  <si>
-    <t>REASON 1</t>
   </si>
   <si>
     <t>YES</t>
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -121,24 +121,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +155,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +174,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -166,16 +197,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,20 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -211,55 +236,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +261,14 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -291,6 +291,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -303,7 +339,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,163 +387,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,11 +513,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +548,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,21 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -576,17 +591,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,27 +610,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,136 +631,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,17 +772,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,20 +1101,20 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="27.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="18.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="21.8571428571429" customWidth="1"/>
-    <col min="8" max="9" width="21.1428571428571" customWidth="1"/>
+    <col min="3" max="4" width="21.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="27.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="16.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="18.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="21.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="16.7142857142857" customWidth="1"/>
     <col min="11" max="11" width="19.2857142857143" customWidth="1"/>
     <col min="12" max="12" width="25.1428571428571" customWidth="1"/>
@@ -1151,125 +1146,125 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>80007749</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="6">
+        <v>43313</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5">
         <v>2017</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="6">
+        <v>44562</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="8">
-        <v>43313</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="8">
-        <v>44562</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="M2" s="5">
         <v>88888888</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="5">
         <v>1</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="5">
         <v>25000000</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>80007749</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="6">
+        <v>43313</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
         <v>2017</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8">
-        <v>43313</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="6" s="2" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:H3"/>
+  <autoFilter ref="A1:D3"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>

--- a/FMS.Website/files_upload/UploadCtf.xlsx
+++ b/FMS.Website/files_upload/UploadCtf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11625" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>REASON</t>
   </si>
   <si>
-    <t>TERMINATION DATE</t>
+    <t>EFFECTIVE DATE</t>
   </si>
   <si>
     <t>POLICE NUMBER</t>
@@ -70,7 +70,7 @@
     <t>EMPLOYEE 80007749</t>
   </si>
   <si>
-    <t>REASON 1</t>
+    <t>Resignation</t>
   </si>
   <si>
     <t>AB1044JN</t>
@@ -99,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -121,6 +121,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -128,9 +148,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,29 +167,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,7 +179,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -191,30 +195,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +232,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -243,13 +255,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -257,14 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,25 +291,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,157 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,16 +514,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -576,17 +567,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,29 +610,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,134 +631,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1101,8 +1101,8 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/FMS.Website/files_upload/UploadCtf.xlsx
+++ b/FMS.Website/files_upload/UploadCtf.xlsx
@@ -10,14 +10,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>*Copy Format</t>
+  </si>
   <si>
     <t>EMPLOYEE ID</t>
   </si>
@@ -99,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -121,9 +124,145 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,142 +272,6 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -291,25 +294,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,157 +462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,17 +516,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +536,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +581,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -604,24 +605,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,141 +634,144 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1099,13 +1105,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1124,147 +1130,158 @@
     <col min="16" max="16" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="4:11">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="5">
-        <v>80007749</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6">
-        <v>43313</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="6">
-        <v>44562</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="5">
-        <v>88888888</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5">
-        <v>25000000</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>80007749</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6">
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7">
         <v>43313</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2017</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="7">
+        <v>44562</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6">
+        <v>88888888</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>25000000</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="6">
+        <v>80007749</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="D4" s="7">
+        <v>43313</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5">
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6">
         <v>2017</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
-    <row r="6" s="2" customFormat="1"/>
+    <row r="7" s="2" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A2:D4"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
